--- a/CodeSystem-cs-hiv-recency-status.xlsx
+++ b/CodeSystem-cs-hiv-recency-status.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>Property</t>
   </si>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>HIV Recency status</t>
+    <t>HIV Recency Testing Status</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T11:00:24+00:00</t>
+    <t>2023-02-22T12:13:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A list of HIV Recency status</t>
+    <t>A list of HIV recency statuses</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -141,16 +141,13 @@
     <t>1</t>
   </si>
   <si>
-    <t>recent</t>
-  </si>
-  <si>
-    <t>Recent HIV infection</t>
-  </si>
-  <si>
-    <t>long-term</t>
-  </si>
-  <si>
-    <t>Not recent HIV infection</t>
+    <t>Recent</t>
+  </si>
+  <si>
+    <t>Not-Recent</t>
+  </si>
+  <si>
+    <t>Not Recent</t>
   </si>
 </sst>
 </file>
@@ -491,7 +488,7 @@
         <v>42</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -500,10 +497,10 @@
         <v>41</v>
       </c>
       <c r="B3" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s" s="2">
         <v>44</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>45</v>
       </c>
       <c r="D3" s="2"/>
     </row>

--- a/CodeSystem-cs-hiv-recency-status.xlsx
+++ b/CodeSystem-cs-hiv-recency-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T12:13:37+00:00</t>
+    <t>2023-02-22T12:14:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-hiv-recency-status.xlsx
+++ b/CodeSystem-cs-hiv-recency-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T12:14:29+00:00</t>
+    <t>2023-02-22T12:55:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-hiv-recency-status.xlsx
+++ b/CodeSystem-cs-hiv-recency-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T12:55:56+00:00</t>
+    <t>2023-02-22T12:56:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-hiv-recency-status.xlsx
+++ b/CodeSystem-cs-hiv-recency-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T12:56:47+00:00</t>
+    <t>2023-02-22T13:02:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-hiv-recency-status.xlsx
+++ b/CodeSystem-cs-hiv-recency-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T13:02:41+00:00</t>
+    <t>2023-02-22T14:01:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
